--- a/Calculs/DataBase_PH2_FileA_V1_results.xlsx
+++ b/Calculs/DataBase_PH2_FileA_V1_results.xlsx
@@ -744,13 +744,13 @@
         <v>14.685</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>24.1725</v>
+        <v>48.345</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.8575</v>
+        <v>14.685</v>
       </c>
       <c r="Z2" t="n">
         <v>82.5</v>
@@ -760,22 +760,22 @@
         <v>63.03</v>
       </c>
       <c r="AC2" t="n">
-        <v>24.1725</v>
+        <v>48.345</v>
       </c>
       <c r="AD2" t="n">
-        <v>38.8575</v>
+        <v>14.685</v>
       </c>
       <c r="AE2" t="n">
-        <v>4.949951071324644</v>
+        <v>9.899902142649289</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.957088582231774</v>
+        <v>3.007137510907122</v>
       </c>
       <c r="AG2" t="n">
-        <v>-160.880560211371</v>
+        <v>-321.761120422742</v>
       </c>
       <c r="AH2" t="n">
-        <v>-258.6168732408046</v>
+        <v>-97.73631302943355</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
@@ -891,13 +891,13 @@
         <v>9.34144</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>15.37664</v>
+        <v>30.75328</v>
       </c>
       <c r="Y3" t="n">
-        <v>24.71808</v>
+        <v>9.34144</v>
       </c>
       <c r="Z3" t="n">
         <v>52.48</v>
@@ -907,28 +907,28 @@
         <v>40.09472</v>
       </c>
       <c r="AC3" t="n">
-        <v>15.37664</v>
+        <v>30.75328</v>
       </c>
       <c r="AD3" t="n">
-        <v>24.71808</v>
+        <v>9.34144</v>
       </c>
       <c r="AE3" t="n">
-        <v>4.730244659567283</v>
+        <v>9.460489319134581</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.348658538229316</v>
+        <v>2.399280721453973</v>
       </c>
       <c r="AG3" t="n">
-        <v>-304.0716604841703</v>
+        <v>-608.1433209683406</v>
       </c>
       <c r="AH3" t="n">
-        <v>-351.0769069482254</v>
+        <v>-132.6787461502847</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-352.3674209157211</v>
+        <v>-133.1664563120983</v>
       </c>
       <c r="AK3" t="n">
         <v>52.48</v>
@@ -1038,13 +1038,13 @@
         <v>0.1958</v>
       </c>
       <c r="W4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.48345</v>
+        <v>0.6446000000000001</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.35695</v>
+        <v>0.1958</v>
       </c>
       <c r="Z4" t="n">
         <v>1.1</v>
@@ -1054,22 +1054,22 @@
         <v>0.8404</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.48345</v>
+        <v>0.6446000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.35695</v>
+        <v>0.1958</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1250307056002942</v>
+        <v>0.1666988333282587</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.09231146559003568</v>
+        <v>0.05041715169883874</v>
       </c>
       <c r="AG4" t="n">
-        <v>-3.325928015511546</v>
+        <v>-4.434662107465957</v>
       </c>
       <c r="AH4" t="n">
-        <v>-2.455690827643261</v>
+        <v>-1.341871713384406</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0.1675764839351057</v>
       </c>
       <c r="AT4" t="n">
-        <v>-5.913925293118645</v>
+        <v>-5.913925293118647</v>
       </c>
       <c r="AU4" t="n">
         <v>66.62009306754935</v>
@@ -1185,13 +1185,13 @@
         <v>7.746560000000001</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>12.75136</v>
+        <v>25.50272</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.49792</v>
+        <v>7.746560000000001</v>
       </c>
       <c r="Z5" t="n">
         <v>43.52</v>
@@ -1201,28 +1201,28 @@
         <v>33.24928</v>
       </c>
       <c r="AC5" t="n">
-        <v>12.75136</v>
+        <v>25.50272</v>
       </c>
       <c r="AD5" t="n">
-        <v>20.49792</v>
+        <v>7.746560000000001</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.336759328482253</v>
+        <v>4.673518656964513</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.434876009490516</v>
+        <v>1.298106007832934</v>
       </c>
       <c r="AG5" t="n">
-        <v>-111.8530609482199</v>
+        <v>-223.7061218964398</v>
       </c>
       <c r="AH5" t="n">
-        <v>-151.1378537585898</v>
+        <v>-57.1179150085541</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-149.4698686259764</v>
+        <v>-56.48755120047515</v>
       </c>
       <c r="AK5" t="n">
         <v>43.52</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-324.9887917324765</v>
+        <v>-324.9887917324764</v>
       </c>
       <c r="AR5" t="n">
         <v>33.24928</v>
@@ -1332,13 +1332,13 @@
         <v>17.622</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>29.007</v>
+        <v>58.014</v>
       </c>
       <c r="Y6" t="n">
-        <v>46.629</v>
+        <v>17.622</v>
       </c>
       <c r="Z6" t="n">
         <v>99.00000000000001</v>
@@ -1348,28 +1348,28 @@
         <v>75.63600000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>29.007</v>
+        <v>58.014</v>
       </c>
       <c r="AD6" t="n">
-        <v>46.629</v>
+        <v>17.622</v>
       </c>
       <c r="AE6" t="n">
-        <v>6.799928689512493</v>
+        <v>13.599857379025</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.851621376916109</v>
+        <v>3.345198736923703</v>
       </c>
       <c r="AG6" t="n">
-        <v>-226.3452125625368</v>
+        <v>-452.6904251250735</v>
       </c>
       <c r="AH6" t="n">
-        <v>-255.6320875143281</v>
+        <v>-96.60830483556352</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-333.2661829820933</v>
+        <v>-125.9477294497083</v>
       </c>
       <c r="AK6" t="n">
         <v>99.00000000000001</v>
@@ -1381,7 +1381,7 @@
         <v>115.4296903783631</v>
       </c>
       <c r="AN6" t="n">
-        <v>13.34812042425256</v>
+        <v>13.34812042425255</v>
       </c>
       <c r="AO6" t="n">
         <v>-436.1205341285896</v>
@@ -1479,13 +1479,13 @@
         <v>11.392</v>
       </c>
       <c r="W7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>28.128</v>
+        <v>37.504</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.768</v>
+        <v>11.392</v>
       </c>
       <c r="Z7" t="n">
         <v>64</v>
@@ -1495,28 +1495,28 @@
         <v>48.896</v>
       </c>
       <c r="AC7" t="n">
-        <v>28.128</v>
+        <v>37.504</v>
       </c>
       <c r="AD7" t="n">
-        <v>20.768</v>
+        <v>11.392</v>
       </c>
       <c r="AE7" t="n">
-        <v>5.264638789903546</v>
+        <v>7.019518386538056</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.634638279423955</v>
+        <v>1.99373070489203</v>
       </c>
       <c r="AG7" t="n">
-        <v>-189.0214454968685</v>
+        <v>-252.0285939958247</v>
       </c>
       <c r="AH7" t="n">
-        <v>-123.3898380332529</v>
+        <v>-67.68379405213874</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-125.0724890160752</v>
+        <v>-68.60678904425697</v>
       </c>
       <c r="AK7" t="n">
         <v>64</v>
@@ -1531,7 +1531,7 @@
         <v>7.836651033744427</v>
       </c>
       <c r="AO7" t="n">
-        <v>-388.5538749714903</v>
+        <v>-388.5538749714902</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>48.896</v>
       </c>
       <c r="AS7" t="n">
-        <v>6.500226198176109</v>
+        <v>6.500226198176105</v>
       </c>
       <c r="AT7" t="n">
-        <v>-335.7571682535999</v>
+        <v>-335.7571682535998</v>
       </c>
       <c r="AU7" t="n">
         <v>70.77518339887844</v>
@@ -1795,13 +1795,13 @@
         <v>2.2784</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.23850841261265</v>
+        <v>1.238508412612648</v>
       </c>
       <c r="AF9" t="n">
         <v>0.3762027219235343</v>
       </c>
       <c r="AG9" t="n">
-        <v>-38.1135701271228</v>
+        <v>-38.11357012712281</v>
       </c>
       <c r="AH9" t="n">
         <v>-11.57715610664155</v>
@@ -1945,7 +1945,7 @@
         <v>2.751223474576801</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.83569598108479</v>
+        <v>0.8356959810847892</v>
       </c>
       <c r="AG10" t="n">
         <v>-94.5027734259879</v>
@@ -2386,13 +2386,13 @@
         <v>17.33794472472989</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.448781731200963</v>
+        <v>3.448781731200969</v>
       </c>
       <c r="AG13" t="n">
         <v>-1070.011815779043</v>
       </c>
       <c r="AH13" t="n">
-        <v>-155.5352345424212</v>
+        <v>-155.5352345424211</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -2508,13 +2508,13 @@
         <v>2.2784</v>
       </c>
       <c r="W14" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>3.7504</v>
+        <v>7.5008</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.0288</v>
+        <v>2.2784</v>
       </c>
       <c r="Z14" t="n">
         <v>12.8</v>
@@ -2524,22 +2524,22 @@
         <v>9.779199999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>3.7504</v>
+        <v>7.5008</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.0288</v>
+        <v>2.2784</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.6872821554359578</v>
+        <v>1.374564310871913</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.104811929045515</v>
+        <v>0.4175297736095578</v>
       </c>
       <c r="AG14" t="n">
-        <v>-32.89795910241762</v>
+        <v>-65.79591820483523</v>
       </c>
       <c r="AH14" t="n">
-        <v>-52.88374995644607</v>
+        <v>-19.98579085402845</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
@@ -2655,13 +2655,13 @@
         <v>8.20224</v>
       </c>
       <c r="W15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>13.50144</v>
+        <v>27.00288</v>
       </c>
       <c r="Y15" t="n">
-        <v>21.70368</v>
+        <v>8.20224</v>
       </c>
       <c r="Z15" t="n">
         <v>46.08</v>
@@ -2671,28 +2671,28 @@
         <v>35.20511999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>13.50144</v>
+        <v>27.00288</v>
       </c>
       <c r="AD15" t="n">
-        <v>21.70368</v>
+        <v>8.20224</v>
       </c>
       <c r="AE15" t="n">
-        <v>2.474215759569445</v>
+        <v>4.948431519138896</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.636927539460548</v>
+        <v>1.374465184764285</v>
       </c>
       <c r="AG15" t="n">
-        <v>-118.4326527687034</v>
+        <v>-236.8653055374068</v>
       </c>
       <c r="AH15" t="n">
-        <v>-160.0283157443891</v>
+        <v>-60.47779236199845</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-158.262213839269</v>
+        <v>-59.81034832991484</v>
       </c>
       <c r="AK15" t="n">
         <v>46.08</v>
@@ -2719,7 +2719,7 @@
         <v>35.20511999999999</v>
       </c>
       <c r="AS15" t="n">
-        <v>4.643691956992765</v>
+        <v>4.643691956992763</v>
       </c>
       <c r="AT15" t="n">
         <v>-313.7235107504753</v>
@@ -2802,13 +2802,13 @@
         <v>27.412</v>
       </c>
       <c r="W16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>67.68299999999999</v>
+        <v>90.244</v>
       </c>
       <c r="Y16" t="n">
-        <v>49.973</v>
+        <v>27.412</v>
       </c>
       <c r="Z16" t="n">
         <v>154</v>
@@ -2818,22 +2818,22 @@
         <v>117.656</v>
       </c>
       <c r="AC16" t="n">
-        <v>67.68299999999999</v>
+        <v>90.244</v>
       </c>
       <c r="AD16" t="n">
-        <v>49.973</v>
+        <v>27.412</v>
       </c>
       <c r="AE16" t="n">
-        <v>10.29662885933868</v>
+        <v>13.72883847911824</v>
       </c>
       <c r="AF16" t="n">
-        <v>7.602402877941755</v>
+        <v>4.170193258162194</v>
       </c>
       <c r="AG16" t="n">
-        <v>-226.5307073362482</v>
+        <v>-302.0409431149978</v>
       </c>
       <c r="AH16" t="n">
-        <v>-167.2564608205064</v>
+        <v>-91.74622504175697</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         <v>11.98828223350488</v>
       </c>
       <c r="AT16" t="n">
-        <v>-409.3170535357809</v>
+        <v>-409.317053535781</v>
       </c>
       <c r="AU16" t="n">
         <v>133.900223728827</v>
@@ -3013,7 +3013,7 @@
         <v>69.43231999999999</v>
       </c>
       <c r="AS17" t="n">
-        <v>8.044872602683135</v>
+        <v>8.044872602683139</v>
       </c>
       <c r="AT17" t="n">
         <v>-361.9923945810886</v>
@@ -3118,10 +3118,10 @@
         <v>23.496</v>
       </c>
       <c r="AE18" t="n">
-        <v>11.44941609976062</v>
+        <v>11.44941609976063</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.477808985934114</v>
+        <v>3.477808985934118</v>
       </c>
       <c r="AG18" t="n">
         <v>-242.9439443721544</v>
@@ -3274,7 +3274,7 @@
         <v>-148.5362972990897</v>
       </c>
       <c r="AH19" t="n">
-        <v>-20.71020583768035</v>
+        <v>-20.71020583768036</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>9.779199999999999</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.210486772603276</v>
+        <v>2.21048677260328</v>
       </c>
       <c r="AT21" t="n">
         <v>-196.8908806686043</v>
@@ -3856,10 +3856,10 @@
         <v>10.745211678592</v>
       </c>
       <c r="AF23" t="n">
-        <v>2.565266106486707</v>
+        <v>2.56526610648671</v>
       </c>
       <c r="AG23" t="n">
-        <v>-479.0723348162405</v>
+        <v>-479.0723348162406</v>
       </c>
       <c r="AH23" t="n">
         <v>-91.56313343044013</v>
@@ -4000,7 +4000,7 @@
         <v>25.454</v>
       </c>
       <c r="AE24" t="n">
-        <v>12.75358053735667</v>
+        <v>12.75358053735668</v>
       </c>
       <c r="AF24" t="n">
         <v>3.873954497695369</v>
@@ -4045,7 +4045,7 @@
         <v>11.29896624519409</v>
       </c>
       <c r="AT24" t="n">
-        <v>-379.9384693243974</v>
+        <v>-379.9384693243973</v>
       </c>
       <c r="AU24" t="n">
         <v>133.780443893089</v>
@@ -4150,19 +4150,19 @@
         <v>5.084653828211949</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.412386950517314</v>
+        <v>1.412386950517313</v>
       </c>
       <c r="AG25" t="n">
         <v>-243.3182748847292</v>
       </c>
       <c r="AH25" t="n">
-        <v>-62.13050843011562</v>
+        <v>-62.1305084301156</v>
       </c>
       <c r="AI25" t="n">
         <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>-61.44510314717873</v>
+        <v>-61.44510314717872</v>
       </c>
       <c r="AK25" t="n">
         <v>47.36</v>
@@ -4174,7 +4174,7 @@
         <v>81.90855790646441</v>
       </c>
       <c r="AN25" t="n">
-        <v>5.648270734801129</v>
+        <v>5.648270734801131</v>
       </c>
       <c r="AO25" t="n">
         <v>-354.6691816494181</v>
@@ -4189,7 +4189,7 @@
         <v>36.18304</v>
       </c>
       <c r="AS25" t="n">
-        <v>4.764572587126633</v>
+        <v>4.764572587126629</v>
       </c>
       <c r="AT25" t="n">
         <v>-322.2928990649975</v>
@@ -4294,7 +4294,7 @@
         <v>7.51872</v>
       </c>
       <c r="AE26" t="n">
-        <v>4.534961522459311</v>
+        <v>4.534961522459303</v>
       </c>
       <c r="AF26" t="n">
         <v>1.259696469380305</v>
@@ -4321,7 +4321,7 @@
         <v>81.90855790646441</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.073012894829184</v>
+        <v>5.073012894829186</v>
       </c>
       <c r="AO26" t="n">
         <v>-316.2397376998936</v>
@@ -4441,13 +4441,13 @@
         <v>28.391</v>
       </c>
       <c r="AE27" t="n">
-        <v>14.21915413908673</v>
+        <v>14.21915413908675</v>
       </c>
       <c r="AF27" t="n">
         <v>3.946579200168773</v>
       </c>
       <c r="AG27" t="n">
-        <v>-312.828119654819</v>
+        <v>-312.8281196548191</v>
       </c>
       <c r="AH27" t="n">
         <v>-81.32927702844904</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="AQ27" t="n">
-        <v>-832.9201526109705</v>
+        <v>-832.9201526109698</v>
       </c>
       <c r="AR27" t="n">
         <v>121.858</v>
@@ -4924,7 +4924,7 @@
         <v>9.779199999999999</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.210486772603276</v>
+        <v>2.21048677260328</v>
       </c>
       <c r="AT30" t="n">
         <v>-196.8908806686043</v>
@@ -5218,7 +5218,7 @@
         <v>9.779199999999999</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.210486772603276</v>
+        <v>2.21048677260328</v>
       </c>
       <c r="AT32" t="n">
         <v>-196.8908806686043</v>
@@ -5301,13 +5301,13 @@
         <v>24.475</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X33" t="n">
-        <v>80.57499999999999</v>
+        <v>60.43124999999999</v>
       </c>
       <c r="Y33" t="n">
-        <v>24.475</v>
+        <v>44.61874999999999</v>
       </c>
       <c r="Z33" t="n">
         <v>137.5</v>
@@ -5317,22 +5317,22 @@
         <v>105.05</v>
       </c>
       <c r="AC33" t="n">
-        <v>80.57499999999999</v>
+        <v>60.43124999999999</v>
       </c>
       <c r="AD33" t="n">
-        <v>24.475</v>
+        <v>44.61874999999999</v>
       </c>
       <c r="AE33" t="n">
-        <v>10.7745179013277</v>
+        <v>8.080888425995777</v>
       </c>
       <c r="AF33" t="n">
-        <v>3.272805778901588</v>
+        <v>5.966435254233517</v>
       </c>
       <c r="AG33" t="n">
-        <v>-197.2451223041584</v>
+        <v>-147.9338417281189</v>
       </c>
       <c r="AH33" t="n">
-        <v>-59.91404738931777</v>
+        <v>-109.2253279653574</v>
       </c>
       <c r="AI33" t="n">
         <v>0</v>
@@ -5448,13 +5448,13 @@
         <v>15.49312</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X34" t="n">
-        <v>51.00544</v>
+        <v>25.50272</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.49312</v>
+        <v>40.99584</v>
       </c>
       <c r="Z34" t="n">
         <v>87.04000000000001</v>
@@ -5464,28 +5464,28 @@
         <v>66.49856</v>
       </c>
       <c r="AC34" t="n">
-        <v>51.00544</v>
+        <v>25.50272</v>
       </c>
       <c r="AD34" t="n">
-        <v>15.49312</v>
+        <v>40.99584</v>
       </c>
       <c r="AE34" t="n">
-        <v>15.73739216618518</v>
+        <v>7.868696083092588</v>
       </c>
       <c r="AF34" t="n">
-        <v>3.17985053705245</v>
+        <v>8.414098892987102</v>
       </c>
       <c r="AG34" t="n">
-        <v>-1015.7624658599</v>
+        <v>-507.88123292995</v>
       </c>
       <c r="AH34" t="n">
-        <v>-141.1862591148008</v>
+        <v>-373.5883597925347</v>
       </c>
       <c r="AI34" t="n">
         <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>-142.2541487687546</v>
+        <v>-376.4140678094573</v>
       </c>
       <c r="AK34" t="n">
         <v>87.04000000000001</v>
@@ -5595,13 +5595,13 @@
         <v>23.496</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X35" t="n">
-        <v>77.35199999999999</v>
+        <v>38.67599999999999</v>
       </c>
       <c r="Y35" t="n">
-        <v>23.496</v>
+        <v>62.172</v>
       </c>
       <c r="Z35" t="n">
         <v>132</v>
@@ -5611,28 +5611,28 @@
         <v>100.848</v>
       </c>
       <c r="AC35" t="n">
-        <v>77.35199999999999</v>
+        <v>38.67599999999999</v>
       </c>
       <c r="AD35" t="n">
-        <v>23.496</v>
+        <v>62.172</v>
       </c>
       <c r="AE35" t="n">
         <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>3.758428043413494</v>
+        <v>9.945053980043566</v>
       </c>
       <c r="AG35" t="n">
         <v>0</v>
       </c>
       <c r="AH35" t="n">
-        <v>-114.0452575834899</v>
+        <v>-301.7714400102457</v>
       </c>
       <c r="AI35" t="n">
-        <v>-130.271920528749</v>
+        <v>-344.7082840957347</v>
       </c>
       <c r="AJ35" t="n">
-        <v>-138.3164594563772</v>
+        <v>-365.9946764267059</v>
       </c>
       <c r="AK35" t="n">
         <v>132</v>
@@ -5742,13 +5742,13 @@
         <v>7.51872</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X36" t="n">
-        <v>24.75264</v>
+        <v>12.37632</v>
       </c>
       <c r="Y36" t="n">
-        <v>7.51872</v>
+        <v>19.89504</v>
       </c>
       <c r="Z36" t="n">
         <v>42.24</v>
@@ -5758,28 +5758,28 @@
         <v>32.27136</v>
       </c>
       <c r="AC36" t="n">
-        <v>24.75264</v>
+        <v>12.37632</v>
       </c>
       <c r="AD36" t="n">
-        <v>7.51872</v>
+        <v>19.89504</v>
       </c>
       <c r="AE36" t="n">
-        <v>4.536062225877322</v>
+        <v>2.26803111293866</v>
       </c>
       <c r="AF36" t="n">
-        <v>1.25992641936726</v>
+        <v>3.333850244505501</v>
       </c>
       <c r="AG36" t="n">
-        <v>-217.1265300759563</v>
+        <v>-108.5632650379781</v>
       </c>
       <c r="AH36" t="n">
-        <v>-55.43797633183192</v>
+        <v>-146.6926227656901</v>
       </c>
       <c r="AI36" t="n">
         <v>0</v>
       </c>
       <c r="AJ36" t="n">
-        <v>-54.82615263575528</v>
+        <v>-145.07369601933</v>
       </c>
       <c r="AK36" t="n">
         <v>42.24</v>
@@ -5800,16 +5800,16 @@
         <v>0</v>
       </c>
       <c r="AQ36" t="n">
-        <v>-315.4003311161929</v>
+        <v>-315.4003311161928</v>
       </c>
       <c r="AR36" t="n">
         <v>32.27136</v>
       </c>
       <c r="AS36" t="n">
-        <v>4.275471201568288</v>
+        <v>4.275471201568283</v>
       </c>
       <c r="AT36" t="n">
-        <v>-287.5237120906449</v>
+        <v>-287.523712090645</v>
       </c>
       <c r="AU36" t="n">
         <v>54.2363335116201</v>
@@ -5911,22 +5911,22 @@
         <v>7.29088</v>
       </c>
       <c r="AE37" t="n">
-        <v>4.382360888802729</v>
+        <v>4.382360888802737</v>
       </c>
       <c r="AF37" t="n">
-        <v>1.218349105528813</v>
+        <v>1.218349105528811</v>
       </c>
       <c r="AG37" t="n">
         <v>-208.8801904389447</v>
       </c>
       <c r="AH37" t="n">
-        <v>-53.39928358328412</v>
+        <v>-53.39928358328414</v>
       </c>
       <c r="AI37" t="n">
         <v>0</v>
       </c>
       <c r="AJ37" t="n">
-        <v>-52.8136285405172</v>
+        <v>-52.81362854051721</v>
       </c>
       <c r="AK37" t="n">
         <v>40.96</v>
@@ -5941,7 +5941,7 @@
         <v>4.91610718880719</v>
       </c>
       <c r="AO37" t="n">
-        <v>-304.7382877275901</v>
+        <v>-304.73828772759</v>
       </c>
       <c r="AP37" t="n">
         <v>0</v>
@@ -5953,7 +5953,7 @@
         <v>31.29344</v>
       </c>
       <c r="AS37" t="n">
-        <v>4.137662462886708</v>
+        <v>4.137662462886712</v>
       </c>
       <c r="AT37" t="n">
         <v>-276.6051192329732</v>
@@ -6232,7 +6232,7 @@
         <v>148.0891144135516</v>
       </c>
       <c r="AN39" t="n">
-        <v>12.05293856507209</v>
+        <v>12.05293856507208</v>
       </c>
       <c r="AO39" t="n">
         <v>-435.7468983738226</v>
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="AQ39" t="n">
-        <v>-717.5755304394069</v>
+        <v>-717.5755304394066</v>
       </c>
       <c r="AR39" t="n">
         <v>80.18944</v>
@@ -6355,7 +6355,7 @@
         <v>11.63647933343392</v>
       </c>
       <c r="AF40" t="n">
-        <v>3.534630241213718</v>
+        <v>3.534630241213716</v>
       </c>
       <c r="AG40" t="n">
         <v>-213.0247320884912</v>
@@ -6544,7 +6544,7 @@
         <v>1.118258327656121</v>
       </c>
       <c r="AT41" t="n">
-        <v>-98.40376451496111</v>
+        <v>-98.4037645149611</v>
       </c>
       <c r="AU41" t="n">
         <v>23.80896442687749</v>
@@ -6646,13 +6646,13 @@
         <v>5.874</v>
       </c>
       <c r="AE42" t="n">
-        <v>2.910096259614865</v>
+        <v>2.910096259614864</v>
       </c>
       <c r="AF42" t="n">
         <v>0.883954289095131</v>
       </c>
       <c r="AG42" t="n">
-        <v>-63.12914598316486</v>
+        <v>-63.12914598316488</v>
       </c>
       <c r="AH42" t="n">
         <v>-19.17574661308137</v>
@@ -6691,7 +6691,7 @@
         <v>2.892008143091701</v>
       </c>
       <c r="AT42" t="n">
-        <v>-84.62927215646776</v>
+        <v>-84.62927215646775</v>
       </c>
       <c r="AU42" t="n">
         <v>137.0466606626849</v>
@@ -6802,13 +6802,13 @@
         <v>-153.6141303345906</v>
       </c>
       <c r="AH43" t="n">
-        <v>-32.87577831903957</v>
+        <v>-32.87577831903956</v>
       </c>
       <c r="AI43" t="n">
         <v>0</v>
       </c>
       <c r="AJ43" t="n">
-        <v>-34.01282516390326</v>
+        <v>-34.01282516390325</v>
       </c>
       <c r="AK43" t="n">
         <v>12.8</v>
@@ -6940,7 +6940,7 @@
         <v>21.538</v>
       </c>
       <c r="AE44" t="n">
-        <v>9.481575753168377</v>
+        <v>9.481575753168384</v>
       </c>
       <c r="AF44" t="n">
         <v>2.8800690854334</v>
@@ -7123,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" t="n">
-        <v>-389.8008161212098</v>
+        <v>-389.8008161212097</v>
       </c>
       <c r="AR45" t="n">
         <v>58.6752</v>
@@ -7381,13 +7381,13 @@
         <v>5.696</v>
       </c>
       <c r="AE47" t="n">
-        <v>3.42371944437714</v>
+        <v>3.423719444377133</v>
       </c>
       <c r="AF47" t="n">
         <v>0.9518352386943856</v>
       </c>
       <c r="AG47" t="n">
-        <v>-163.1876487804255</v>
+        <v>-163.1876487804254</v>
       </c>
       <c r="AH47" t="n">
         <v>-41.71819029944072</v>
@@ -7423,7 +7423,7 @@
         <v>24.448</v>
       </c>
       <c r="AS47" t="n">
-        <v>3.264860919152476</v>
+        <v>3.264860919152477</v>
       </c>
       <c r="AT47" t="n">
         <v>-216.0019859362801</v>
@@ -7528,7 +7528,7 @@
         <v>8.43008</v>
       </c>
       <c r="AE48" t="n">
-        <v>5.06710477767816</v>
+        <v>5.067104777678153</v>
       </c>
       <c r="AF48" t="n">
         <v>1.408716153267689</v>
@@ -7570,7 +7570,7 @@
         <v>36.18304</v>
       </c>
       <c r="AS48" t="n">
-        <v>4.749453177825798</v>
+        <v>4.7494531778258</v>
       </c>
       <c r="AT48" t="n">
         <v>-319.928028641652</v>
@@ -7822,16 +7822,16 @@
         <v>14.8096</v>
       </c>
       <c r="AE50" t="n">
-        <v>10.40462695839955</v>
+        <v>10.40462695839954</v>
       </c>
       <c r="AF50" t="n">
-        <v>2.549451412842197</v>
+        <v>2.549451412842198</v>
       </c>
       <c r="AG50" t="n">
-        <v>-357.392306774645</v>
+        <v>-357.3923067746451</v>
       </c>
       <c r="AH50" t="n">
-        <v>-73.49725554990778</v>
+        <v>-73.49725554990779</v>
       </c>
       <c r="AI50" t="n">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>16.66666666666667</v>
       </c>
       <c r="AT50" t="n">
-        <v>-456.7443873440902</v>
+        <v>-456.7443873440903</v>
       </c>
       <c r="AU50" t="n">
         <v>64.49328836319663</v>
@@ -8119,7 +8119,7 @@
         <v>6.116226984246987</v>
       </c>
       <c r="AF52" t="n">
-        <v>1.857830039583556</v>
+        <v>1.857830039583554</v>
       </c>
       <c r="AG52" t="n">
         <v>-181.6198845466656</v>
@@ -8161,7 +8161,7 @@
         <v>5.785053308074593</v>
       </c>
       <c r="AT52" t="n">
-        <v>-242.5771569469724</v>
+        <v>-242.5771569469723</v>
       </c>
       <c r="AU52" t="n">
         <v>82.35141959913695</v>
@@ -8263,16 +8263,16 @@
         <v>9.1136</v>
       </c>
       <c r="AE53" t="n">
-        <v>5.477951111003418</v>
+        <v>5.477951111003412</v>
       </c>
       <c r="AF53" t="n">
-        <v>1.522936381911012</v>
+        <v>1.522936381911014</v>
       </c>
       <c r="AG53" t="n">
         <v>-261.1002380486808</v>
       </c>
       <c r="AH53" t="n">
-        <v>-66.74910447910516</v>
+        <v>-66.74910447910517</v>
       </c>
       <c r="AI53" t="n">
         <v>0</v>
@@ -8290,22 +8290,22 @@
         <v>82.27884352700082</v>
       </c>
       <c r="AN53" t="n">
-        <v>6.059687118540316</v>
+        <v>6.059687118540317</v>
       </c>
       <c r="AO53" t="n">
-        <v>-381.1317008876781</v>
+        <v>-381.1317008876782</v>
       </c>
       <c r="AP53" t="n">
         <v>0</v>
       </c>
       <c r="AQ53" t="n">
-        <v>-380.0653777681966</v>
+        <v>-380.0653777681967</v>
       </c>
       <c r="AR53" t="n">
         <v>39.1168</v>
       </c>
       <c r="AS53" t="n">
-        <v>5.1117717719413</v>
+        <v>5.111771771941297</v>
       </c>
       <c r="AT53" t="n">
         <v>-345.9361372099183</v>
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="AQ54" t="n">
-        <v>-792.7356173678374</v>
+        <v>-792.7356173678373</v>
       </c>
       <c r="AR54" t="n">
         <v>105.05</v>
